--- a/dota.xlsx
+++ b/dota.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="24720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -20,7 +25,8 @@
     <t>Treinamento</t>
   </si>
   <si>
-    <t>rt @pri0ri: o unico jogo q existe é dota 2_x000D_ o resto é matrix irreal feita sob medida pra vender pro gado comprar jogar 20h e cansar pra com…</t>
+    <t>rt @pri0ri: o unico jogo q existe é dota 2
+ o resto é matrix irreal feita sob medida pra vender pro gado comprar jogar 20h e cansar pra com…</t>
   </si>
   <si>
     <t>sdds jogar dota.</t>
@@ -526,7 +532,8 @@
     <t>pq tem cara tão merda nesse dota aff</t>
   </si>
   <si>
-    <t>o unico jogo q existe é dota 2_x000D_ o resto é matrix irreal feita sob medida pra vender pro gado comprar jogar 20h e cansar pra comprar mais dps</t>
+    <t>o unico jogo q existe é dota 2
+ o resto é matrix irreal feita sob medida pra vender pro gado comprar jogar 20h e cansar pra comprar mais dps</t>
   </si>
   <si>
     <t>bom, aparentemente eu só to perdendo no dota pq só jogo com uns gênios que fazem medusa suporte. boa noite</t>
@@ -542,7 +549,8 @@
 rodjer é muito bom, eles n poderiam contratar… https://t.co/brsdxmihww</t>
   </si>
   <si>
-    <t>@jprgenehr naooo_x000D_ele joga dota, não lol</t>
+    <t>@jprgenehr naooo
+ele joga dota, não lol</t>
   </si>
   <si>
     <t>@heeeymatheeus eu estou falando a do dota, não a do lol nem a do cs</t>
@@ -1518,8 +1526,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1869,1530 +1877,2441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N302" sqref="N302"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="N103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="N143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="N205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="N228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="N235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="N257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" t="s">
         <v>293</v>
       </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -4401,5 +5320,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/dota.xlsx
+++ b/dota.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="24720" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="489">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1522,12 +1527,24 @@
   <si>
     <t>hoje eu entreguei aquele dota... foi louco.</t>
   </si>
+  <si>
+    <t>legenda</t>
+  </si>
+  <si>
+    <t>não relevante=0</t>
+  </si>
+  <si>
+    <t>relevante=1</t>
+  </si>
+  <si>
+    <t>relevante/não relevante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,6 +1560,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1552,7 +1577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1575,21 +1600,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1877,41 +1927,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N302" sqref="N302"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1935,15 +1999,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1983,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1999,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2007,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2031,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2039,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2047,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2079,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2087,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2095,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2103,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2119,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2127,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2135,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2143,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2151,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2167,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2175,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2183,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2191,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2199,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2207,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2215,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2223,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2231,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2239,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2247,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2255,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2271,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2279,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2287,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2295,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2303,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2311,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2319,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2327,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2335,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2351,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2359,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2367,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2375,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2383,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2391,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2399,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2415,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2431,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2439,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2447,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2455,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2463,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2471,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2479,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2487,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2495,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2503,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2511,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2519,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2527,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2535,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2543,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2551,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2567,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2575,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2583,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2599,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2607,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2615,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2623,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2631,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2639,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2647,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2655,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2663,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2671,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2679,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2687,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2695,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2703,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2711,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2719,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2727,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2735,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2743,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2751,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2759,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2767,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2775,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2783,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2791,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2799,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2807,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2815,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2823,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2831,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2839,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2847,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2855,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2863,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2871,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2879,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2887,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2895,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2903,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2911,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2919,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2927,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2935,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2943,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2951,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2959,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2967,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2975,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2983,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2991,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2999,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3007,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3015,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -3023,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -3031,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -3039,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -3047,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -3055,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -3063,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -3071,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -3079,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -3087,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -3095,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -3103,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -3111,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -3119,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -3127,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -3135,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -3143,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -3151,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -3159,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3167,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -3175,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -3183,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -3191,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -3199,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -3207,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -3215,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -3223,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -3231,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -3239,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -3247,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -3255,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -3263,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -3271,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -3279,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -3287,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -3295,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -3303,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -3311,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -3319,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -3327,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -3335,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -3343,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -3351,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -3359,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -3367,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -3375,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -3383,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -3391,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -3399,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>186</v>
       </c>
@@ -3407,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -3415,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -3423,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -3431,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -3439,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -3447,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -3455,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -3463,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>194</v>
       </c>
@@ -3471,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -3479,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>196</v>
       </c>
@@ -3487,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>197</v>
       </c>
@@ -3495,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>198</v>
       </c>
@@ -3503,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>199</v>
       </c>
@@ -3511,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -3519,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -3527,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>202</v>
       </c>
@@ -3535,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>203</v>
       </c>
@@ -3543,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -3551,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>205</v>
       </c>
@@ -3559,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -3567,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -3575,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -3583,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -3591,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -3599,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -3607,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -3615,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -3623,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -3631,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -3639,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -3647,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>217</v>
       </c>
@@ -3655,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -3663,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>219</v>
       </c>
@@ -3671,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>220</v>
       </c>
@@ -3679,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>221</v>
       </c>
@@ -3687,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>222</v>
       </c>
@@ -3695,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>223</v>
       </c>
@@ -3703,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -3711,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -3719,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>226</v>
       </c>
@@ -3727,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>227</v>
       </c>
@@ -3735,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -3743,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>229</v>
       </c>
@@ -3751,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>230</v>
       </c>
@@ -3759,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>231</v>
       </c>
@@ -3767,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>232</v>
       </c>
@@ -3775,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>233</v>
       </c>
@@ -3783,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>234</v>
       </c>
@@ -3791,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>235</v>
       </c>
@@ -3799,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>236</v>
       </c>
@@ -3807,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>237</v>
       </c>
@@ -3815,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -3823,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -3831,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>240</v>
       </c>
@@ -3839,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>241</v>
       </c>
@@ -3847,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>198</v>
       </c>
@@ -3855,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>242</v>
       </c>
@@ -3863,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>243</v>
       </c>
@@ -3871,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>244</v>
       </c>
@@ -3879,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>245</v>
       </c>
@@ -3887,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>246</v>
       </c>
@@ -3895,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>247</v>
       </c>
@@ -3903,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -3911,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>248</v>
       </c>
@@ -3919,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>249</v>
       </c>
@@ -3927,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>250</v>
       </c>
@@ -3935,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>251</v>
       </c>
@@ -3943,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>252</v>
       </c>
@@ -3951,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>253</v>
       </c>
@@ -3959,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>254</v>
       </c>
@@ -3967,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>255</v>
       </c>
@@ -3975,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>256</v>
       </c>
@@ -3983,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>257</v>
       </c>
@@ -3991,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -3999,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>258</v>
       </c>
@@ -4007,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>259</v>
       </c>
@@ -4015,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>260</v>
       </c>
@@ -4023,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>261</v>
       </c>
@@ -4031,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>262</v>
       </c>
@@ -4039,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>263</v>
       </c>
@@ -4047,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>264</v>
       </c>
@@ -4055,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>265</v>
       </c>
@@ -4063,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>266</v>
       </c>
@@ -4071,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>267</v>
       </c>
@@ -4079,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>268</v>
       </c>
@@ -4087,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>269</v>
       </c>
@@ -4095,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>270</v>
       </c>
@@ -4103,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>271</v>
       </c>
@@ -4111,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>272</v>
       </c>
@@ -4119,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>273</v>
       </c>
@@ -4127,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>274</v>
       </c>
@@ -4135,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>275</v>
       </c>
@@ -4143,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>70</v>
       </c>
@@ -4151,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>276</v>
       </c>
@@ -4159,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>277</v>
       </c>
@@ -4167,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>278</v>
       </c>
@@ -4175,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>279</v>
       </c>
@@ -4183,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>280</v>
       </c>
@@ -4191,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>281</v>
       </c>
@@ -4199,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>282</v>
       </c>
@@ -4207,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>283</v>
       </c>
@@ -4215,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>284</v>
       </c>
@@ -4223,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>285</v>
       </c>
@@ -4231,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>286</v>
       </c>
@@ -4239,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>287</v>
       </c>
@@ -4247,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>288</v>
       </c>
@@ -4255,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>289</v>
       </c>
@@ -4263,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>290</v>
       </c>
@@ -4271,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>291</v>
       </c>
@@ -4279,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>292</v>
       </c>
@@ -4287,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>293</v>
       </c>
@@ -4297,6 +4362,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4306,1014 +4372,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>484</v>
       </c>

--- a/dota.xlsx
+++ b/dota.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1930,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -4373,1019 +4373,1628 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="P202" sqref="P202"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>484</v>
       </c>
+      <c r="P201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P202" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
